--- a/data_filtered.xlsx
+++ b/data_filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Desktop\Estadística\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1C17F-34B1-4504-9371-CE1CCD20AABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4481D-B3E5-4F62-A512-E9BB4101DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{550DC5A7-1BEA-4E33-8278-F18A7453D6EF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{550DC5A7-1BEA-4E33-8278-F18A7453D6EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CD1B1B-6CEF-428C-A8E2-FBB1DC1D3533}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8">
         <v>2</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <f>I2-4</f>
+        <f t="shared" ref="J2:J33" si="1">I2-4</f>
         <v>1</v>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <f>I3-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <f>I4-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <f>I5-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="11">
         <v>5</v>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <f>I6-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" s="11">
         <v>2</v>
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f>I7-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="11">
         <v>7</v>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <f>I8-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="11">
         <v>6</v>
@@ -887,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f>I9-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -905,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f>I10-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f>I11-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <f>I12-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <f>I13-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <f>I14-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="11">
         <v>7</v>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <f>I15-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <f>I16-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <f>I17-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <f>I18-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="J19">
-        <f>I19-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <f>I20-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>4</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <f>I21-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="14">
         <v>15</v>
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <f>I22-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="14">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <f>I23-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F24" s="14">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <f>I24-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <f>I25-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <f>I26-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <f>I27-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <f>I28-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <f>I29-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" s="14">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="J30">
-        <f>I30-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="14">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="J31">
-        <f>I31-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="J32">
-        <f>I32-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="J33">
-        <f>I33-4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="J34">
-        <f>I34-4</f>
+        <f t="shared" ref="J34:J65" si="2">I34-4</f>
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="J35">
-        <f>I35-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" s="14">
         <v>8</v>
@@ -1805,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="J36">
-        <f>I36-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="E37" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="J37">
-        <f>I37-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
         <v>19</v>
       </c>
       <c r="E38" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="14">
         <v>5</v>
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="J38">
-        <f>I38-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="J39">
-        <f>I39-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="J40">
-        <f>I40-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="J41">
-        <f>I41-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F42" s="14">
         <v>5</v>
@@ -2009,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="J42">
-        <f>I42-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="E43" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F43" s="14">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="J43">
-        <f>I43-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <f>I44-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="J45">
-        <f>I45-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="J46">
-        <f>I46-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="J47">
-        <f>I47-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="J48">
-        <f>I48-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="J49">
-        <f>I49-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="J50">
-        <f>I50-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <f>I51-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="J52">
-        <f>I52-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="J53">
-        <f>I53-4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2410,15 +2410,15 @@
         <v>12</v>
       </c>
       <c r="H54">
-        <f>IF(C54="Mujer",0,1)</f>
+        <f t="shared" ref="H54:H75" si="3">IF(C54="Mujer",0,1)</f>
         <v>0</v>
       </c>
       <c r="I54">
-        <f>IF(G54="Universidad",5,IF(G54="Instituto (ESO o Bachillerato)",4,IF(G54="Formación profesional",3,IF(G54="Otro",2,IF(G54="No estudio",1,0)))))</f>
+        <f t="shared" ref="I54:I75" si="4">IF(G54="Universidad",5,IF(G54="Instituto (ESO o Bachillerato)",4,IF(G54="Formación profesional",3,IF(G54="Otro",2,IF(G54="No estudio",1,0)))))</f>
         <v>4</v>
       </c>
       <c r="J54">
-        <f>I54-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2445,15 +2445,15 @@
         <v>12</v>
       </c>
       <c r="H55">
-        <f>IF(C55="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I55">
-        <f>IF(G55="Universidad",5,IF(G55="Instituto (ESO o Bachillerato)",4,IF(G55="Formación profesional",3,IF(G55="Otro",2,IF(G55="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J55">
-        <f>I55-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2480,15 +2480,15 @@
         <v>12</v>
       </c>
       <c r="H56">
-        <f>IF(C56="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f>IF(G56="Universidad",5,IF(G56="Instituto (ESO o Bachillerato)",4,IF(G56="Formación profesional",3,IF(G56="Otro",2,IF(G56="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J56">
-        <f>I56-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2515,15 +2515,15 @@
         <v>12</v>
       </c>
       <c r="H57">
-        <f>IF(C57="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>IF(G57="Universidad",5,IF(G57="Instituto (ESO o Bachillerato)",4,IF(G57="Formación profesional",3,IF(G57="Otro",2,IF(G57="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J57">
-        <f>I57-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2550,15 +2550,15 @@
         <v>12</v>
       </c>
       <c r="H58">
-        <f>IF(C58="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f>IF(G58="Universidad",5,IF(G58="Instituto (ESO o Bachillerato)",4,IF(G58="Formación profesional",3,IF(G58="Otro",2,IF(G58="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J58">
-        <f>I58-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2585,15 +2585,15 @@
         <v>12</v>
       </c>
       <c r="H59">
-        <f>IF(C59="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I59">
-        <f>IF(G59="Universidad",5,IF(G59="Instituto (ESO o Bachillerato)",4,IF(G59="Formación profesional",3,IF(G59="Otro",2,IF(G59="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J59">
-        <f>I59-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2620,15 +2620,15 @@
         <v>12</v>
       </c>
       <c r="H60">
-        <f>IF(C60="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>IF(G60="Universidad",5,IF(G60="Instituto (ESO o Bachillerato)",4,IF(G60="Formación profesional",3,IF(G60="Otro",2,IF(G60="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J60">
-        <f>I60-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2655,15 +2655,15 @@
         <v>12</v>
       </c>
       <c r="H61">
-        <f>IF(C61="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I61">
-        <f>IF(G61="Universidad",5,IF(G61="Instituto (ESO o Bachillerato)",4,IF(G61="Formación profesional",3,IF(G61="Otro",2,IF(G61="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J61">
-        <f>I61-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2690,15 +2690,15 @@
         <v>12</v>
       </c>
       <c r="H62">
-        <f>IF(C62="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>IF(G62="Universidad",5,IF(G62="Instituto (ESO o Bachillerato)",4,IF(G62="Formación profesional",3,IF(G62="Otro",2,IF(G62="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J62">
-        <f>I62-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2725,15 +2725,15 @@
         <v>12</v>
       </c>
       <c r="H63">
-        <f>IF(C63="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f>IF(G63="Universidad",5,IF(G63="Instituto (ESO o Bachillerato)",4,IF(G63="Formación profesional",3,IF(G63="Otro",2,IF(G63="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J63">
-        <f>I63-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2760,15 +2760,15 @@
         <v>12</v>
       </c>
       <c r="H64">
-        <f>IF(C64="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f>IF(G64="Universidad",5,IF(G64="Instituto (ESO o Bachillerato)",4,IF(G64="Formación profesional",3,IF(G64="Otro",2,IF(G64="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J64">
-        <f>I64-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2795,15 +2795,15 @@
         <v>12</v>
       </c>
       <c r="H65">
-        <f>IF(C65="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I65">
-        <f>IF(G65="Universidad",5,IF(G65="Instituto (ESO o Bachillerato)",4,IF(G65="Formación profesional",3,IF(G65="Otro",2,IF(G65="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J65">
-        <f>I65-4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2830,15 +2830,15 @@
         <v>12</v>
       </c>
       <c r="H66">
-        <f>IF(C66="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <f>IF(G66="Universidad",5,IF(G66="Instituto (ESO o Bachillerato)",4,IF(G66="Formación profesional",3,IF(G66="Otro",2,IF(G66="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J66">
-        <f>I66-4</f>
+        <f t="shared" ref="J66:J75" si="5">I66-4</f>
         <v>0</v>
       </c>
     </row>
@@ -2865,15 +2865,15 @@
         <v>12</v>
       </c>
       <c r="H67">
-        <f>IF(C67="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f>IF(G67="Universidad",5,IF(G67="Instituto (ESO o Bachillerato)",4,IF(G67="Formación profesional",3,IF(G67="Otro",2,IF(G67="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J67">
-        <f>I67-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2900,15 +2900,15 @@
         <v>12</v>
       </c>
       <c r="H68">
-        <f>IF(C68="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>IF(G68="Universidad",5,IF(G68="Instituto (ESO o Bachillerato)",4,IF(G68="Formación profesional",3,IF(G68="Otro",2,IF(G68="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J68">
-        <f>I68-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2935,15 +2935,15 @@
         <v>12</v>
       </c>
       <c r="H69">
-        <f>IF(C69="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f>IF(G69="Universidad",5,IF(G69="Instituto (ESO o Bachillerato)",4,IF(G69="Formación profesional",3,IF(G69="Otro",2,IF(G69="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J69">
-        <f>I69-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2970,15 +2970,15 @@
         <v>12</v>
       </c>
       <c r="H70">
-        <f>IF(C70="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I70">
-        <f>IF(G70="Universidad",5,IF(G70="Instituto (ESO o Bachillerato)",4,IF(G70="Formación profesional",3,IF(G70="Otro",2,IF(G70="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J70">
-        <f>I70-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3005,15 +3005,15 @@
         <v>12</v>
       </c>
       <c r="H71">
-        <f>IF(C71="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I71">
-        <f>IF(G71="Universidad",5,IF(G71="Instituto (ESO o Bachillerato)",4,IF(G71="Formación profesional",3,IF(G71="Otro",2,IF(G71="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J71">
-        <f>I71-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,15 +3040,15 @@
         <v>12</v>
       </c>
       <c r="H72">
-        <f>IF(C72="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f>IF(G72="Universidad",5,IF(G72="Instituto (ESO o Bachillerato)",4,IF(G72="Formación profesional",3,IF(G72="Otro",2,IF(G72="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J72">
-        <f>I72-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3075,15 +3075,15 @@
         <v>12</v>
       </c>
       <c r="H73">
-        <f>IF(C73="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>IF(G73="Universidad",5,IF(G73="Instituto (ESO o Bachillerato)",4,IF(G73="Formación profesional",3,IF(G73="Otro",2,IF(G73="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J73">
-        <f>I73-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3110,15 +3110,15 @@
         <v>12</v>
       </c>
       <c r="H74">
-        <f>IF(C74="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>IF(G74="Universidad",5,IF(G74="Instituto (ESO o Bachillerato)",4,IF(G74="Formación profesional",3,IF(G74="Otro",2,IF(G74="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J74">
-        <f>I74-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3145,15 +3145,15 @@
         <v>12</v>
       </c>
       <c r="H75">
-        <f>IF(C75="Mujer",0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>IF(G75="Universidad",5,IF(G75="Instituto (ESO o Bachillerato)",4,IF(G75="Formación profesional",3,IF(G75="Otro",2,IF(G75="No estudio",1,0)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J75">
-        <f>I75-4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
